--- a/Archivos Excel/AGUA_COMBUSTIBLE.xlsx
+++ b/Archivos Excel/AGUA_COMBUSTIBLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANÁLISIS DE GASTO COMÚN\GASTO-COMUN\Archivos Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANALISIS_GASTO_COMUN\GASTO-COMUN\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20D797A-D9C8-4D53-B194-DBC05C88B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C64755-BCC1-4D43-A6C2-AE6CB5CD696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{C0C0C670-C528-4723-9ACA-03D2D66E0704}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C0C0C670-C528-4723-9ACA-03D2D66E0704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +572,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,16 +615,16 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -659,10 +660,10 @@
       <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>24.202999999999999</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -701,7 +702,7 @@
       <c r="K3" s="2">
         <v>20.22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -737,10 +738,10 @@
       <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>18.815000000000001</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -776,10 +777,10 @@
       <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>27.594999999999999</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -815,10 +816,10 @@
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>23.087</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -854,10 +855,10 @@
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>32.293999999999997</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -893,10 +894,10 @@
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>26.454999999999998</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -932,10 +933,10 @@
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>20.841000000000001</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -971,10 +972,10 @@
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1010,10 +1011,10 @@
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>24.628</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>22.861000000000001</v>
       </c>
     </row>
